--- a/gacha_results.xlsx
+++ b/gacha_results.xlsx
@@ -436,7 +436,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3.117</v>
+        <v>2.927</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33.2579連</t>
+          <t>33.2721連</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>332連</t>
+          <t>387連</t>
         </is>
       </c>
     </row>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4520</v>
+        <v>4639</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2</v>
+        <v>46.38999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2</v>
+        <v>46.38999938964844</v>
       </c>
     </row>
     <row r="10">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2559</v>
+        <v>2438</v>
       </c>
       <c r="C10" t="n">
-        <v>25.59</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="D10" t="n">
-        <v>70.79000000000001</v>
+        <v>70.76999664306641</v>
       </c>
     </row>
     <row r="11">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C11" t="n">
-        <v>13.01</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D11" t="n">
-        <v>83.80000000000001</v>
+        <v>83.73000335693359</v>
       </c>
     </row>
     <row r="12">
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="C12" t="n">
-        <v>7.39</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D12" t="n">
-        <v>91.19000000000001</v>
+        <v>91.26000213623047</v>
       </c>
     </row>
     <row r="13">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C13" t="n">
-        <v>4.05</v>
+        <v>3.759999990463257</v>
       </c>
       <c r="D13" t="n">
-        <v>95.24000000000001</v>
+        <v>95.01999664306641</v>
       </c>
     </row>
     <row r="14">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C14" t="n">
-        <v>2.27</v>
+        <v>2.190000057220459</v>
       </c>
       <c r="D14" t="n">
-        <v>97.51000000000001</v>
+        <v>97.20999908447266</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C15" t="n">
-        <v>1.39</v>
+        <v>1.419999957084656</v>
       </c>
       <c r="D15" t="n">
-        <v>98.90000000000001</v>
+        <v>98.62999725341797</v>
       </c>
     </row>
     <row r="16">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C16" t="n">
-        <v>0.46</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="D16" t="n">
-        <v>99.36</v>
+        <v>99.26000213623047</v>
       </c>
     </row>
     <row r="17">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>0.27</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D17" t="n">
-        <v>99.63</v>
+        <v>99.55999755859375</v>
       </c>
     </row>
     <row r="18">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>0.13</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="D18" t="n">
-        <v>99.75999999999999</v>
+        <v>99.76000213623047</v>
       </c>
     </row>
     <row r="19">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1</v>
+        <v>0.07999999821186066</v>
       </c>
       <c r="D19" t="n">
-        <v>99.85999999999999</v>
+        <v>99.83999633789062</v>
       </c>
     </row>
     <row r="20">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06</v>
+        <v>0.07000000029802322</v>
       </c>
       <c r="D20" t="n">
-        <v>99.91999999999999</v>
+        <v>99.91000366210938</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="D21" t="n">
-        <v>99.93999999999998</v>
+        <v>99.94999694824219</v>
       </c>
     </row>
     <row r="22">
@@ -731,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02</v>
+        <v>0.01999999955296516</v>
       </c>
       <c r="D22" t="n">
-        <v>99.95999999999998</v>
+        <v>99.97000122070312</v>
       </c>
     </row>
     <row r="23">
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0.01999999955296516</v>
       </c>
       <c r="D23" t="n">
-        <v>99.96999999999998</v>
+        <v>99.98999786376953</v>
       </c>
     </row>
     <row r="24">
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03</v>
+        <v>0.009999999776482582</v>
       </c>
       <c r="D24" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gacha_results.xlsx
+++ b/gacha_results.xlsx
@@ -436,7 +436,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.927</v>
+        <v>88.0121</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33.2721連</t>
+          <t>1.13814連</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23.0連</t>
+          <t>1.0連</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>387連</t>
+          <t>6連</t>
         </is>
       </c>
     </row>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4639</v>
+        <v>100000</v>
       </c>
       <c r="C9" t="n">
-        <v>46.38999938964844</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>46.38999938964844</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2438</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3799991607666</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.76999664306641</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.96000003814697</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>83.73000335693359</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.53000020980835</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>91.26000213623047</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.759999990463257</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>95.01999664306641</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.190000057220459</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>97.20999908447266</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.419999957084656</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>98.62999725341797</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6299999952316284</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.26000213623047</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.300000011920929</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>99.55999755859375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2000000029802322</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>99.76000213623047</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07999999821186066</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>99.83999633789062</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07000000029802322</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>99.91000366210938</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03999999910593033</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>99.94999694824219</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01999999955296516</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>99.97000122070312</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01999999955296516</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>99.98999786376953</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009999999776482582</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>100</v>

--- a/gacha_results.xlsx
+++ b/gacha_results.xlsx
@@ -436,7 +436,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>88.0121</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.13814連</t>
+          <t>249.0628連</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0連</t>
+          <t>173.0連</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6連</t>
+          <t>2428連</t>
         </is>
       </c>
     </row>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100000</v>
+        <v>764</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>7.639999866485596</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>7.639999866485596</v>
       </c>
     </row>
     <row r="10">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>14.60999965667725</v>
       </c>
     </row>
     <row r="11">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>21.17000007629395</v>
       </c>
     </row>
     <row r="12">
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>26.81999969482422</v>
       </c>
     </row>
     <row r="13">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="14">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5.269999980926514</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>37.52000045776367</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>42.56999969482422</v>
       </c>
     </row>
     <row r="16">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>47.27000045776367</v>
       </c>
     </row>
     <row r="17">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>51.47999954223633</v>
       </c>
     </row>
     <row r="18">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>55.02999877929688</v>
       </c>
     </row>
     <row r="19">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>58.58000183105469</v>
       </c>
     </row>
     <row r="20">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.180000066757202</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>61.7599983215332</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>64.93000030517578</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>67.62999725341797</v>
       </c>
     </row>
     <row r="23">
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>70.02999877929688</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>29.96999931335449</v>
       </c>
       <c r="D24" t="n">
         <v>100</v>
